--- a/attendance_data/AILAB.xlsx
+++ b/attendance_data/AILAB.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,16 @@
           <t>22-04-2025</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -442,6 +452,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -452,6 +472,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -462,6 +492,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +512,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -482,6 +532,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -492,6 +552,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -502,6 +572,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -512,6 +592,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -522,6 +612,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -532,6 +632,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -542,6 +652,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -552,6 +672,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -562,6 +692,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -572,6 +712,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -582,6 +732,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -592,6 +752,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -602,6 +772,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -612,6 +792,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -622,6 +812,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -632,6 +832,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -642,6 +852,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -652,6 +872,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -662,6 +892,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -672,6 +912,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -682,6 +932,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -692,6 +952,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -702,6 +972,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -712,6 +992,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -722,6 +1012,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -732,6 +1032,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -742,6 +1052,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -752,6 +1072,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -762,6 +1092,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -772,6 +1112,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -782,6 +1132,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -792,6 +1152,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -802,6 +1172,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -812,6 +1192,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -822,6 +1212,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -832,6 +1232,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -842,6 +1252,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -852,6 +1272,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -862,6 +1292,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -872,6 +1312,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -882,6 +1332,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -892,6 +1352,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -902,6 +1372,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -912,6 +1392,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -922,6 +1412,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -932,6 +1432,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -942,6 +1452,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -952,6 +1472,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -962,6 +1492,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -972,6 +1512,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -982,6 +1532,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -992,6 +1552,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1002,6 +1572,16 @@
           <t>P</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1012,6 +1592,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1022,6 +1612,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1032,6 +1632,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1042,6 +1652,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1052,6 +1672,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1062,6 +1692,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1072,6 +1712,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1082,6 +1732,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1092,6 +1752,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1102,6 +1772,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1112,6 +1792,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1122,6 +1812,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1132,6 +1832,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1142,6 +1852,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1152,6 +1872,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1162,6 +1892,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1172,6 +1912,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1182,6 +1932,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1192,6 +1952,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1202,6 +1972,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1212,6 +1992,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1222,6 +2012,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1232,6 +2032,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1242,6 +2052,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1252,6 +2072,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1262,6 +2092,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1272,6 +2112,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1282,6 +2132,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1292,6 +2152,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1302,6 +2172,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1312,6 +2192,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1322,6 +2212,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1332,6 +2232,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1342,6 +2252,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1352,6 +2272,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1362,6 +2292,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1372,6 +2312,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1382,6 +2332,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1392,6 +2352,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1402,6 +2372,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1412,6 +2392,16 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1422,12 +2412,32 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>100</v>
       </c>
       <c r="B101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>A</t>
         </is>
